--- a/docss/trend/france/E_huntington.xlsx
+++ b/docss/trend/france/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\france\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\france\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1558,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,196 +1581,196 @@
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.16532982420176268</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.19714120542630553</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.13340569857973605</v>
+      <c r="B2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.21931509650312364</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.21145609975792468</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.22904188721440732</v>
+      <c r="B3">
+        <v>0.219</v>
+      </c>
+      <c r="C3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.22900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.19213637802749872</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.20142243592999876</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.18229844653978944</v>
+      <c r="B4">
+        <v>0.192</v>
+      </c>
+      <c r="C4">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.182</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.21185429464094341</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.21862899046391249</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.20450011431239545</v>
+      <c r="B5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.219</v>
+      </c>
+      <c r="D5">
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.17894349130801857</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.17188090388663113</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.18584454944357276</v>
+      <c r="B6">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.15927950909826905</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.16494150459766388</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.15286385151557624</v>
+      <c r="B7">
+        <v>0.159</v>
+      </c>
+      <c r="C7">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.153</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.21884101699106395</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.21373319160193205</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.22496172250248492</v>
+      <c r="B8">
+        <v>0.219</v>
+      </c>
+      <c r="C8">
+        <v>0.214</v>
+      </c>
+      <c r="D8">
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.21095824125222862</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.19162696157582104</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.22964952210895717</v>
+      <c r="B9">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.192</v>
+      </c>
+      <c r="D9">
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.19019190699327737</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.16862320271320641</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.21047444350551814</v>
+      <c r="B10">
+        <v>0.19</v>
+      </c>
+      <c r="C10">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="7">
-        <v>0.23534150060731918</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.27120968885719776</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.20471793552860618</v>
+      <c r="B11">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="7">
-        <v>0.23826396907679737</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.26165006961673498</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.21507998579181731</v>
+      <c r="B12">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.215</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" s="7">
-        <v>0.22366738668642938</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.21105363522656262</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.23738065222278237</v>
+      <c r="B13">
+        <v>0.224</v>
+      </c>
+      <c r="C13">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.23125810129567981</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.2316178185865283</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.22993153589777648</v>
+      <c r="B14">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2013</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.23698180029168725</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.27526790159754455</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.20201122015714645</v>
+      <c r="B15">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.20200000000000001</v>
       </c>
     </row>
   </sheetData>
